--- a/miao/原码反码补码.xlsx
+++ b/miao/原码反码补码.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ylf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ylf\Desktop\ylf0925.github.io\miao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C8CC80-669A-4FC4-9279-05A276BFE52B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654F9F2E-9E99-4160-9017-040653783584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-98" windowWidth="15457" windowHeight="28996" xr2:uid="{E36D14B8-0FDD-49C1-A835-960029034D99}"/>
+    <workbookView xWindow="840" yWindow="-98" windowWidth="28058" windowHeight="16395" xr2:uid="{E36D14B8-0FDD-49C1-A835-960029034D99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -233,7 +233,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,7 +553,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.4"/>
